--- a/sprints/Product Backlog.xlsx
+++ b/sprints/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Important Documents\Textbooks and Stuff\Spring 2024\Capstone\CapstoneProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gc00030\Desktop\workspace\Capstone2024Group4\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7566E53-9EC2-455A-AB13-2932BE3DDD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5FF17D-B1D7-4FA1-AB50-AA4A4FC87A88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="16275" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>As a…</t>
   </si>
@@ -48,9 +48,6 @@
     <t>I can remember key details or insights from the source</t>
   </si>
   <si>
-    <t>Upload a source</t>
-  </si>
-  <si>
     <t>I can enter notes for that source</t>
   </si>
   <si>
@@ -100,6 +97,15 @@
   </si>
   <si>
     <t>I can work when a network connection is not available (e.g., during plane flight)</t>
+  </si>
+  <si>
+    <t>Upload a pdf source</t>
+  </si>
+  <si>
+    <t>Upload an embedded video source</t>
+  </si>
+  <si>
+    <t>Upload an uploaded video source</t>
   </si>
 </sst>
 </file>
@@ -438,22 +444,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="74.88671875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="74.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -467,9 +473,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -481,35 +487,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -517,99 +523,127 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-    <sortCondition ref="A2:A11"/>
+  <sortState ref="A2:D13">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sprints/Product Backlog.xlsx
+++ b/sprints/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gc00030\Desktop\workspace\Capstone2024Group4\sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5FF17D-B1D7-4FA1-AB50-AA4A4FC87A88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E7502C-B15E-4035-914B-DA793EEC9AF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="16275" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>As a…</t>
   </si>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>Upload an uploaded video source</t>
+  </si>
+  <si>
+    <t>Manage a source</t>
+  </si>
+  <si>
+    <t>I can manage the source</t>
+  </si>
+  <si>
+    <t>Manage notes</t>
+  </si>
+  <si>
+    <t>I can manage notes</t>
+  </si>
+  <si>
+    <t>Remove a source</t>
+  </si>
+  <si>
+    <t>Remove a note</t>
+  </si>
+  <si>
+    <t>I can remove the source</t>
+  </si>
+  <si>
+    <t>I can remove the notes</t>
   </si>
 </sst>
 </file>
@@ -444,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +499,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -489,7 +513,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -517,30 +541,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,98 +575,154 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D13">
+  <sortState ref="A2:D17">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
